--- a/student_timetables/Moses LO_timetable.xlsx
+++ b/student_timetables/Moses LO_timetable.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,48 +432,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="44" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="57" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="52" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="44" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="39" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="78" customWidth="1" min="12" max="12"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
+    <col width="35" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Day 1</t>
+          <t>14 Jul (Monday)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>15 Jul (Tuesday)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Day 2</t>
+          <t>16 Jul (Wednesday)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>17 Jul (Thursday)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Day 3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Day 4</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Day 5</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Day 6</t>
+          <t>18 Jul (Friday)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>19 Jul (Saturday)</t>
         </is>
       </c>
     </row>
@@ -495,22 +490,22 @@
           <t>Welcome Speech</t>
         </is>
       </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Workshop</t>
+        </is>
+      </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
           <t>Workshop</t>
         </is>
       </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Workshop</t>
+        </is>
+      </c>
       <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>Workshop</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>Workshop</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
         <is>
           <t>Briefing for Saturday
 (Room zzz)</t>
@@ -523,7 +518,7 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>Check in Maritime Museum
 Briefing for Saturday Concert 
@@ -557,31 +552,31 @@
 (Room Shelley)</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>Practice 
 (Flute practice room)</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>Private lesson with Stephane RETY 
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Private Lesson with Stephane RETY 
 (Room Stephane)</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>Practice 
 (Flute practice room)</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>Flute MasterClass
 (Room Stephane)</t>
         </is>
       </c>
-      <c r="L7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>Rehearsal for Students and Friends Concert</t>
         </is>
@@ -620,13 +615,13 @@
 (Flute practice room)</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>Private Lesson with Stephane &amp; pianist 
 (Room Stephane)</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>Practice 
 (Flute practice room)</t>
@@ -665,27 +660,27 @@
           <t>Lunch</t>
         </is>
       </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
           <t>Lunch</t>
         </is>
       </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
           <t>Lunch</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Lunch</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>Lunch</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>Lunch
 Dress Up, Warm Up</t>
@@ -721,35 +716,35 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Private lesson with Ivy CHUANG 
+          <t>Private Lesson with Ivy CHUANG 
 (Room Ivy)</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>Practice 
 (Flute practice room)</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>Practice 
 (Flute practice room)</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Private lesson with Ivy CHUANG 
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Private Lesson with Ivy CHUANG 
 (Room Ivy)</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>Flute MasterClass
 (Room Stephane)</t>
         </is>
       </c>
-      <c r="L19" s="3" t="inlineStr">
+      <c r="G19" s="3" t="inlineStr">
         <is>
           <t>Concert call time</t>
         </is>
@@ -761,7 +756,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="L20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>Lina Summer Camp of Music Students &amp; Friends Concert</t>
         </is>
@@ -793,25 +788,25 @@
 (Room Stephane)</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Ensemble 
 (Room Stephane)</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>Ensemble 
 (Room Stephane)</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>Ensemble 
 (Room Stephane)</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>Ensemble 
 (Room Stephane)</t>
@@ -838,7 +833,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>After concert refreshment 
 (Maritime Museum)</t>
@@ -857,25 +852,25 @@
 (Room Acting)</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>Acting Class 
 (Room Acting)</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>Acting Class 
 (Room Acting)</t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>Acting Class 
 (Room Acting)</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>Group Activity 
 (Room Group Activity)</t>
@@ -905,44 +900,44 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="E7:E14"/>
+    <mergeCell ref="E23:E26"/>
     <mergeCell ref="B3:B6"/>
-    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="F15:F18"/>
-    <mergeCell ref="B11:B14"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="D27:D30"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G26:G28"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="F3:F6"/>
-    <mergeCell ref="L7:L14"/>
+    <mergeCell ref="F7:F14"/>
+    <mergeCell ref="G7:G14"/>
     <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E15:E18"/>
     <mergeCell ref="B19:B22"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="C27:C30"/>
     <mergeCell ref="F23:F26"/>
-    <mergeCell ref="L20:L25"/>
+    <mergeCell ref="E27:E30"/>
     <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C11:C14"/>
     <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C7:C10"/>
     <mergeCell ref="D15:D18"/>
+    <mergeCell ref="C23:C26"/>
     <mergeCell ref="F27:F30"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="C19:C22"/>
     <mergeCell ref="D23:D26"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="H7:H14"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="J7:J14"/>
-    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E3:E6"/>
     <mergeCell ref="B7:B10"/>
-    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D19:D22"/>
     <mergeCell ref="F19:F22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="J23:J26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/student_timetables/Moses LO_timetable.xlsx
+++ b/student_timetables/Moses LO_timetable.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Welcome Speech</t>
+          <t>Welcome</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Private Lesson with Stephane &amp; pianist 
+          <t>Private Lesson with Stephane RETY &amp; pianist 
 (Room Stephane)</t>
         </is>
       </c>

--- a/student_timetables/Moses LO_timetable.xlsx
+++ b/student_timetables/Moses LO_timetable.xlsx
@@ -55,15 +55,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,27 +497,27 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>Welcome</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Workshop</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>Workshop</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>Workshop</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>Briefing for Saturday
 (Room zzz)</t>
@@ -538,7 +536,7 @@
       <c r="D4" s="1" t="n"/>
       <c r="E4" s="1" t="n"/>
       <c r="F4" s="1" t="n"/>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>Check in Maritime Museum
 Briefing for Saturday Concert 
@@ -578,37 +576,37 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>Rehearsal with pianist
 (Room Shelley)</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Practice 
 (Flute practice room)</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>Private Lesson with Stephane RETY 
 (Room Stephane)</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="1" t="inlineStr">
         <is>
           <t>Practice 
 (Flute practice room)</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>Flute MasterClass
 (Room Stephane)</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>Rehearsal for Students and Friends Concert</t>
         </is>
@@ -659,19 +657,19 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>Practice 
 (Flute practice room)</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>Private Lesson with Stephane RETY &amp; pianist 
 (Room Stephane)</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="1" t="inlineStr">
         <is>
           <t>Practice 
 (Flute practice room)</t>
@@ -726,32 +724,32 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Lunch</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>Lunch</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="1" t="inlineStr">
         <is>
           <t>Lunch</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E15" s="1" t="inlineStr">
         <is>
           <t>Lunch</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F15" s="1" t="inlineStr">
         <is>
           <t>Lunch</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr">
+      <c r="G15" s="1" t="inlineStr">
         <is>
           <t>Lunch
 Dress Up, Warm Up</t>
@@ -803,41 +801,37 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>Private Lesson with Ivy CHUANG 
 (Room Ivy)</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>Practice 
 (Flute practice room)</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D19" s="1" t="inlineStr">
         <is>
           <t>Practice 
 (Flute practice room)</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="E19" s="1" t="inlineStr">
         <is>
           <t>Private Lesson with Ivy CHUANG 
 (Room Ivy)</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="F19" s="1" t="inlineStr">
         <is>
           <t>Flute MasterClass
 (Room Stephane)</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
-        <is>
-          <t>Concert call time</t>
-        </is>
-      </c>
+      <c r="G19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -850,9 +844,9 @@
       <c r="D20" s="1" t="n"/>
       <c r="E20" s="1" t="n"/>
       <c r="F20" s="1" t="n"/>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>Lina Summer Camp of Music Students &amp; Friends Concert</t>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>Concert call time</t>
         </is>
       </c>
     </row>
@@ -867,7 +861,11 @@
       <c r="D21" s="1" t="n"/>
       <c r="E21" s="1" t="n"/>
       <c r="F21" s="1" t="n"/>
-      <c r="G21" s="1" t="n"/>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>Lina Summer Camp of Music Students &amp; Friends Concert</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -888,31 +886,31 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>Ensemble 
 (Room Stephane)</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>Ensemble 
 (Room Stephane)</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="D23" s="1" t="inlineStr">
         <is>
           <t>Ensemble 
 (Room Stephane)</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="E23" s="1" t="inlineStr">
         <is>
           <t>Ensemble 
 (Room Stephane)</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr">
+      <c r="F23" s="1" t="inlineStr">
         <is>
           <t>Ensemble 
 (Room Stephane)</t>
@@ -957,50 +955,50 @@
       <c r="D26" s="1" t="n"/>
       <c r="E26" s="1" t="n"/>
       <c r="F26" s="1" t="n"/>
-      <c r="G26" s="3" t="inlineStr">
+      <c r="G26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Acting Class 
+(Room Acting)</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>Acting Class 
+(Room Acting)</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>Acting Class 
+(Room Acting)</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>Acting Class 
+(Room Acting)</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>Group Activity 
+(Room Group Activity)</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
         <is>
           <t>After concert refreshment 
 (Maritime Museum)</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>Acting Class 
-(Room Acting)</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>Acting Class 
-(Room Acting)</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>Acting Class 
-(Room Acting)</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>Acting Class 
-(Room Acting)</t>
-        </is>
-      </c>
-      <c r="F27" s="3" t="inlineStr">
-        <is>
-          <t>Group Activity 
-(Room Group Activity)</t>
-        </is>
-      </c>
-      <c r="G27" s="1" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1045,6 +1043,7 @@
   <mergeCells count="38">
     <mergeCell ref="E7:E14"/>
     <mergeCell ref="E23:E26"/>
+    <mergeCell ref="G21:G26"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="F15:F18"/>
@@ -1053,7 +1052,6 @@
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G26:G28"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="F3:F6"/>
     <mergeCell ref="F7:F14"/>
@@ -1061,7 +1059,6 @@
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="E15:E18"/>
     <mergeCell ref="B19:B22"/>
-    <mergeCell ref="G15:G18"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="E27:E30"/>
@@ -1074,13 +1071,14 @@
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="D23:D26"/>
-    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="G27:G28"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G15:G19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/student_timetables/Moses LO_timetable.xlsx
+++ b/student_timetables/Moses LO_timetable.xlsx
@@ -523,7 +523,13 @@
 (Room zzz)</t>
         </is>
       </c>
-      <c r="G3" s="1" t="n"/>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>Check in Maritime Museum
+Briefing for Saturday Concert
+Maritime Museum Tour</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -536,13 +542,7 @@
       <c r="D4" s="1" t="n"/>
       <c r="E4" s="1" t="n"/>
       <c r="F4" s="1" t="n"/>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>Check in Maritime Museum
-Briefing for Saturday Concert 
-Maritime Museum Tour</t>
-        </is>
-      </c>
+      <c r="G4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1024,7 +1024,7 @@
       <c r="D29" s="1" t="n"/>
       <c r="E29" s="1" t="n"/>
       <c r="F29" s="1" t="n"/>
-      <c r="G29" s="1" t="n"/>
+      <c r="G29" s="1" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1040,7 +1040,7 @@
       <c r="G30" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
     <mergeCell ref="E7:E14"/>
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="G21:G26"/>
@@ -1051,10 +1051,10 @@
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="E19:E22"/>
-    <mergeCell ref="G4:G6"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="F3:F6"/>
     <mergeCell ref="F7:F14"/>
+    <mergeCell ref="G3:G6"/>
     <mergeCell ref="G7:G14"/>
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="E15:E18"/>
@@ -1062,6 +1062,7 @@
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="E27:E30"/>
+    <mergeCell ref="G29:G30"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="B15:B18"/>
